--- a/DataSet/BroadBandTechCleaned.xlsx
+++ b/DataSet/BroadBandTechCleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kordellschrock/Desktop/Leidos/DataSet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kordellschrock/Desktop/GitHub/leidosaisesmap/DataSet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76499F7B-A0DB-7846-B90D-32296B8FEE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31B65F-728E-CC46-8FFB-81611993260E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{6D3483DF-A9AB-C54E-8EA8-0D41C6C680B5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{6D3483DF-A9AB-C54E-8EA8-0D41C6C680B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3163,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693AD34-983D-D346-A36D-FE73C6439C3F}">
   <dimension ref="A1:Q839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
